--- a/LockedPower/Resources/balance10-29-01-2020.xlsx
+++ b/LockedPower/Resources/balance10-29-01-2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romanenkoty\Desktop\час мах\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programms\С# Progs\DIPLOM\LockedPower\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28335" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Баланс мощности" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Рек</t>
   </si>
   <si>
-    <t>КС</t>
-  </si>
-  <si>
     <t>ВПр</t>
   </si>
   <si>
@@ -552,6 +549,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Среднесуточная температура ОЭС Сибири за дату 29.01.2020 , °C.</t>
+  </si>
+  <si>
+    <t>КС</t>
   </si>
 </sst>
 </file>
@@ -1688,49 +1688,75 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1739,6 +1765,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1750,66 +1785,31 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2121,9 +2121,9 @@
   </sheetPr>
   <dimension ref="A1:Z174"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S127" sqref="S127:U127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2147,7 +2147,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -2175,75 +2175,75 @@
     </row>
     <row r="2" spans="1:26" s="53" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="167" t="s">
+      <c r="C2" s="182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="178" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="206" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="186" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="169" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="171" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="169" t="s">
+      <c r="I2" s="197"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="178" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="178" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="178" t="s">
+        <v>169</v>
+      </c>
+      <c r="P2" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="177" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="178"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="167" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="167" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" s="167" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="167" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="169" t="s">
+      <c r="R2" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="193" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="164" t="s">
+      <c r="S2" s="182" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="182" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="164" t="s">
+      <c r="U2" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="190" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="164" t="s">
-        <v>119</v>
-      </c>
-      <c r="W2" s="186" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="188"/>
+      <c r="V2" s="182" t="s">
+        <v>118</v>
+      </c>
+      <c r="W2" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="177"/>
     </row>
     <row r="3" spans="1:26" s="53" customFormat="1" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="170"/>
+      <c r="B3" s="190"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="205"/>
       <c r="H3" s="67" t="s">
         <v>6</v>
       </c>
@@ -2257,34 +2257,34 @@
         <v>9</v>
       </c>
       <c r="L3" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="195"/>
-      <c r="R3" s="194"/>
-      <c r="S3" s="192"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="165"/>
+        <v>145</v>
+      </c>
+      <c r="M3" s="179"/>
+      <c r="N3" s="179"/>
+      <c r="O3" s="179"/>
+      <c r="P3" s="179"/>
+      <c r="Q3" s="187"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="203"/>
       <c r="W3" s="88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="X3" s="66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z3" s="53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="75">
         <v>43859.291666666664</v>
@@ -2303,11 +2303,11 @@
         <v>1576.2256140550599</v>
       </c>
       <c r="H4" s="111">
-        <f>SUM(H5:H8)</f>
+        <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
       <c r="I4" s="111">
-        <f t="shared" ref="I4:O4" si="0">SUM(I5:I7)</f>
+        <f t="shared" ref="I4:L4" si="0">SUM(I5:I7)</f>
         <v>0</v>
       </c>
       <c r="J4" s="111">
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="M4" s="111">
-        <f t="shared" si="0"/>
+        <f>SUM(M5:M7)</f>
         <v>0</v>
       </c>
       <c r="N4" s="111">
-        <f t="shared" si="0"/>
+        <f>SUM(N5:N7)</f>
         <v>0</v>
       </c>
       <c r="O4" s="111">
-        <f t="shared" si="0"/>
+        <f>SUM(O5:O7)</f>
         <v>0</v>
       </c>
       <c r="P4" s="111">
-        <f>SUM(P5:P8)</f>
+        <f>SUM(P5:P7)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="111">
@@ -2355,7 +2355,7 @@
         <v>411.79700469970703</v>
       </c>
       <c r="U4" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V4" s="111">
         <f>SUM(V5:V8)</f>
@@ -2376,10 +2376,10 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B5" s="180"/>
-      <c r="C5" s="166"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="168"/>
       <c r="D5" s="78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="112">
         <v>445.20001220703125</v>
@@ -2432,24 +2432,24 @@
         <v>162.85000610351563</v>
       </c>
       <c r="U5" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V5" s="113">
         <v>6.97301235049963E-3</v>
       </c>
-      <c r="W5" s="157"/>
-      <c r="X5" s="157"/>
-      <c r="Y5" s="158"/>
+      <c r="W5" s="192"/>
+      <c r="X5" s="192"/>
+      <c r="Y5" s="193"/>
       <c r="Z5" s="96">
         <f>E5-F5-H5-M5-N5-O5-P5-Q5+V5</f>
         <v>7.3751434683799744E-6</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B6" s="181"/>
-      <c r="C6" s="163"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="169"/>
       <c r="D6" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="116">
         <v>385</v>
@@ -2502,24 +2502,24 @@
         <v>150</v>
       </c>
       <c r="U6" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V6" s="117">
         <v>0</v>
       </c>
-      <c r="W6" s="157"/>
-      <c r="X6" s="157"/>
-      <c r="Y6" s="158"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="193"/>
       <c r="Z6" s="96">
         <f>E6-F6-H6-M6-N6-O6-P6-Q6+V6</f>
         <v>5.7220458984375E-6</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="181"/>
-      <c r="C7" s="163"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="169"/>
       <c r="D7" s="39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="116">
         <v>735</v>
@@ -2572,24 +2572,24 @@
         <v>98.946998596191406</v>
       </c>
       <c r="U7" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V7" s="117">
         <v>0</v>
       </c>
-      <c r="W7" s="157"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="158"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="193"/>
       <c r="Z7" s="96">
         <f>E7-F7-H7-M7-N7-O7-P7-Q7+V7</f>
         <v>1.430511474609375E-6</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="182"/>
-      <c r="C8" s="163"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="119">
         <v>36</v>
@@ -2602,31 +2602,31 @@
         <v>27.07162880897522</v>
       </c>
       <c r="H8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P8" s="121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="120">
         <f>SUM(R8,T8)</f>
@@ -2636,20 +2636,20 @@
         <v>27.071628570556641</v>
       </c>
       <c r="S8" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T8" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U8" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V8" s="120">
         <v>0.59069371223449707</v>
       </c>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="158"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="192"/>
+      <c r="Y8" s="193"/>
       <c r="Z8" s="96" t="e">
         <f>E8-F8-H8-P8-Q8+V8</f>
         <v>#VALUE!</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="9" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C9" s="75">
         <v>43859.625</v>
@@ -2751,10 +2751,10 @@
     </row>
     <row r="10" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="51"/>
-      <c r="B10" s="183"/>
-      <c r="C10" s="162"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="123">
         <f>SUM(E11:E15)</f>
@@ -2821,25 +2821,25 @@
         <v>433.5</v>
       </c>
       <c r="U10" s="125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V10" s="126">
         <f>SUM(V11:V15)</f>
         <v>6.9651119709014893</v>
       </c>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="185"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="200"/>
       <c r="Z10" s="96">
         <f t="shared" si="2"/>
         <v>5.0067901611328125E-6</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B11" s="184"/>
-      <c r="C11" s="173"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="189"/>
       <c r="D11" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="116">
         <v>345</v>
@@ -2892,24 +2892,24 @@
         <v>40</v>
       </c>
       <c r="U11" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V11" s="117">
         <v>0.39676463603973389</v>
       </c>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="185"/>
+      <c r="W11" s="194"/>
+      <c r="X11" s="194"/>
+      <c r="Y11" s="200"/>
       <c r="Z11" s="96">
         <f t="shared" si="2"/>
         <v>1.3232231140136719E-5</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B12" s="184"/>
-      <c r="C12" s="173"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="189"/>
       <c r="D12" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="116">
         <v>496.5</v>
@@ -2962,24 +2962,24 @@
         <v>31.5</v>
       </c>
       <c r="U12" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V12" s="117">
         <v>5.3916406631469727</v>
       </c>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="185"/>
+      <c r="W12" s="194"/>
+      <c r="X12" s="194"/>
+      <c r="Y12" s="200"/>
       <c r="Z12" s="96">
         <f t="shared" si="2"/>
         <v>-9.5367431640625E-6</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B13" s="184"/>
-      <c r="C13" s="173"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="189"/>
       <c r="D13" s="40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="116">
         <v>384</v>
@@ -3032,24 +3032,24 @@
         <v>152</v>
       </c>
       <c r="U13" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V13" s="117">
         <v>1.1767066717147827</v>
       </c>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="185"/>
+      <c r="W13" s="194"/>
+      <c r="X13" s="194"/>
+      <c r="Y13" s="200"/>
       <c r="Z13" s="96">
         <f t="shared" si="2"/>
         <v>-5.3644180297851563E-6</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B14" s="184"/>
-      <c r="C14" s="173"/>
+      <c r="B14" s="199"/>
+      <c r="C14" s="189"/>
       <c r="D14" s="40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="116">
         <v>1200</v>
@@ -3102,24 +3102,24 @@
         <v>160</v>
       </c>
       <c r="U14" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V14" s="117">
         <v>0</v>
       </c>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="185"/>
+      <c r="W14" s="194"/>
+      <c r="X14" s="194"/>
+      <c r="Y14" s="200"/>
       <c r="Z14" s="96">
         <f t="shared" si="2"/>
         <v>7.62939453125E-6</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B15" s="184"/>
-      <c r="C15" s="173"/>
+      <c r="B15" s="199"/>
+      <c r="C15" s="189"/>
       <c r="D15" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E15" s="116">
         <v>97</v>
@@ -3172,24 +3172,24 @@
         <v>50</v>
       </c>
       <c r="U15" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V15" s="117">
         <v>0</v>
       </c>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="185"/>
+      <c r="W15" s="194"/>
+      <c r="X15" s="194"/>
+      <c r="Y15" s="200"/>
       <c r="Z15" s="96">
         <f t="shared" si="2"/>
         <v>-9.5367431640625E-7</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="184"/>
-      <c r="C16" s="173"/>
+      <c r="B16" s="199"/>
+      <c r="C16" s="189"/>
       <c r="D16" s="81" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="119">
         <v>490</v>
@@ -3236,10 +3236,10 @@
         <v>140.05967712402344</v>
       </c>
       <c r="S16" s="128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T16" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U16" s="122">
         <v>21.24</v>
@@ -3247,9 +3247,9 @@
       <c r="V16" s="120">
         <v>0</v>
       </c>
-      <c r="W16" s="161"/>
-      <c r="X16" s="161"/>
-      <c r="Y16" s="185"/>
+      <c r="W16" s="194"/>
+      <c r="X16" s="194"/>
+      <c r="Y16" s="200"/>
       <c r="Z16" s="96">
         <f t="shared" si="2"/>
         <v>3.2287597656477374E-4</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="17" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="74" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="75">
         <v>43859.25</v>
@@ -3328,7 +3328,7 @@
         <v>395.89999389648438</v>
       </c>
       <c r="U17" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V17" s="111">
         <f>SUM(V18:V31)</f>
@@ -3349,10 +3349,10 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="180"/>
-      <c r="C18" s="163"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="169"/>
       <c r="D18" s="79" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="112">
         <v>300.50900268554688</v>
@@ -3405,24 +3405,24 @@
         <v>65</v>
       </c>
       <c r="U18" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V18" s="113">
         <v>0</v>
       </c>
-      <c r="W18" s="157"/>
-      <c r="X18" s="157"/>
-      <c r="Y18" s="158"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="193"/>
       <c r="Z18" s="96">
         <f t="shared" si="2"/>
         <v>4.5895576477050781E-6</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B19" s="181"/>
-      <c r="C19" s="163"/>
+      <c r="B19" s="164"/>
+      <c r="C19" s="169"/>
       <c r="D19" s="40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="116">
         <v>445</v>
@@ -3475,24 +3475,24 @@
         <v>89</v>
       </c>
       <c r="U19" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V19" s="113">
         <v>0</v>
       </c>
-      <c r="W19" s="157"/>
-      <c r="X19" s="157"/>
-      <c r="Y19" s="158"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="193"/>
       <c r="Z19" s="96">
         <f t="shared" si="2"/>
         <v>1.3828277587890625E-5</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B20" s="181"/>
-      <c r="C20" s="163"/>
+      <c r="B20" s="164"/>
+      <c r="C20" s="169"/>
       <c r="D20" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="116">
         <v>36</v>
@@ -3545,24 +3545,24 @@
         <v>27</v>
       </c>
       <c r="U20" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V20" s="113">
         <v>0</v>
       </c>
-      <c r="W20" s="157"/>
-      <c r="X20" s="157"/>
-      <c r="Y20" s="158"/>
+      <c r="W20" s="192"/>
+      <c r="X20" s="192"/>
+      <c r="Y20" s="193"/>
       <c r="Z20" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B21" s="181"/>
-      <c r="C21" s="163"/>
+      <c r="B21" s="164"/>
+      <c r="C21" s="169"/>
       <c r="D21" s="40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E21" s="116">
         <v>519.9000244140625</v>
@@ -3615,24 +3615,24 @@
         <v>214.89999389648438</v>
       </c>
       <c r="U21" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V21" s="113">
         <v>0</v>
       </c>
-      <c r="W21" s="157"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="158"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
+      <c r="Y21" s="193"/>
       <c r="Z21" s="96">
         <f t="shared" si="2"/>
         <v>2.6702880859375E-5</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B22" s="182"/>
-      <c r="C22" s="163"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="169"/>
       <c r="D22" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="119">
         <v>15.600000381469727</v>
@@ -3685,14 +3685,14 @@
         <v>0</v>
       </c>
       <c r="U22" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V22" s="113">
         <v>0</v>
       </c>
-      <c r="W22" s="157"/>
-      <c r="X22" s="157"/>
-      <c r="Y22" s="158"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="192"/>
+      <c r="Y22" s="193"/>
       <c r="Z22" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="23" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="163"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="169"/>
       <c r="D23" s="80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" s="119">
         <v>25</v>
@@ -3736,14 +3736,14 @@
       <c r="S23" s="119"/>
       <c r="T23" s="119"/>
       <c r="U23" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V23" s="113">
         <v>0</v>
       </c>
-      <c r="W23" s="157"/>
-      <c r="X23" s="157"/>
-      <c r="Y23" s="158"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="193"/>
       <c r="Z23" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3751,10 +3751,10 @@
     </row>
     <row r="24" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="163"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="169"/>
       <c r="D24" s="80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="119">
         <v>5</v>
@@ -3787,14 +3787,14 @@
       <c r="S24" s="119"/>
       <c r="T24" s="119"/>
       <c r="U24" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V24" s="113">
         <v>0</v>
       </c>
-      <c r="W24" s="157"/>
-      <c r="X24" s="157"/>
-      <c r="Y24" s="158"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="193"/>
       <c r="Z24" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3802,10 +3802,10 @@
     </row>
     <row r="25" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51"/>
-      <c r="B25" s="182"/>
-      <c r="C25" s="163"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="169"/>
       <c r="D25" s="80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E25" s="119">
         <v>5</v>
@@ -3838,14 +3838,14 @@
       <c r="S25" s="119"/>
       <c r="T25" s="119"/>
       <c r="U25" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V25" s="113">
         <v>0</v>
       </c>
-      <c r="W25" s="157"/>
-      <c r="X25" s="157"/>
-      <c r="Y25" s="158"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="192"/>
+      <c r="Y25" s="193"/>
       <c r="Z25" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3853,10 +3853,10 @@
     </row>
     <row r="26" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="163"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="169"/>
       <c r="D26" s="80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E26" s="119">
         <v>5</v>
@@ -3889,14 +3889,14 @@
       <c r="S26" s="119"/>
       <c r="T26" s="119"/>
       <c r="U26" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V26" s="113">
         <v>0</v>
       </c>
-      <c r="W26" s="157"/>
-      <c r="X26" s="157"/>
-      <c r="Y26" s="158"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
+      <c r="Y26" s="193"/>
       <c r="Z26" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3904,10 +3904,10 @@
     </row>
     <row r="27" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51"/>
-      <c r="B27" s="182"/>
-      <c r="C27" s="163"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="169"/>
       <c r="D27" s="80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" s="119">
         <v>25</v>
@@ -3940,14 +3940,14 @@
       <c r="S27" s="119"/>
       <c r="T27" s="119"/>
       <c r="U27" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V27" s="113">
         <v>0</v>
       </c>
-      <c r="W27" s="157"/>
-      <c r="X27" s="157"/>
-      <c r="Y27" s="158"/>
+      <c r="W27" s="192"/>
+      <c r="X27" s="192"/>
+      <c r="Y27" s="193"/>
       <c r="Z27" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3955,10 +3955,10 @@
     </row>
     <row r="28" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51"/>
-      <c r="B28" s="182"/>
-      <c r="C28" s="163"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="169"/>
       <c r="D28" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E28" s="119">
         <v>5</v>
@@ -3991,14 +3991,14 @@
       <c r="S28" s="119"/>
       <c r="T28" s="119"/>
       <c r="U28" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V28" s="113">
         <v>0</v>
       </c>
-      <c r="W28" s="157"/>
-      <c r="X28" s="157"/>
-      <c r="Y28" s="158"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="193"/>
       <c r="Z28" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4006,10 +4006,10 @@
     </row>
     <row r="29" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51"/>
-      <c r="B29" s="182"/>
-      <c r="C29" s="163"/>
+      <c r="B29" s="161"/>
+      <c r="C29" s="169"/>
       <c r="D29" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="119">
         <v>40</v>
@@ -4040,14 +4040,14 @@
       <c r="S29" s="119"/>
       <c r="T29" s="119"/>
       <c r="U29" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V29" s="113">
         <v>0</v>
       </c>
-      <c r="W29" s="157"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="158"/>
+      <c r="W29" s="192"/>
+      <c r="X29" s="192"/>
+      <c r="Y29" s="193"/>
       <c r="Z29" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4055,10 +4055,10 @@
     </row>
     <row r="30" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51"/>
-      <c r="B30" s="182"/>
-      <c r="C30" s="163"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="169"/>
       <c r="D30" s="80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E30" s="119">
         <v>10</v>
@@ -4089,24 +4089,24 @@
       <c r="S30" s="119"/>
       <c r="T30" s="119"/>
       <c r="U30" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V30" s="113">
         <v>0</v>
       </c>
-      <c r="W30" s="157"/>
-      <c r="X30" s="157"/>
-      <c r="Y30" s="158"/>
+      <c r="W30" s="192"/>
+      <c r="X30" s="192"/>
+      <c r="Y30" s="193"/>
       <c r="Z30" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B31" s="182"/>
-      <c r="C31" s="163"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="169"/>
       <c r="D31" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" s="119">
         <v>249.5</v>
@@ -4159,24 +4159,24 @@
         <v>0</v>
       </c>
       <c r="U31" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V31" s="113">
         <v>0</v>
       </c>
-      <c r="W31" s="157"/>
-      <c r="X31" s="157"/>
-      <c r="Y31" s="158"/>
+      <c r="W31" s="192"/>
+      <c r="X31" s="192"/>
+      <c r="Y31" s="193"/>
       <c r="Z31" s="96">
         <f t="shared" si="2"/>
         <v>3.814697265625E-6</v>
       </c>
     </row>
     <row r="32" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="182"/>
-      <c r="C32" s="163"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="169"/>
       <c r="D32" s="80" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="119">
         <v>200</v>
@@ -4229,14 +4229,14 @@
         <v>0</v>
       </c>
       <c r="U32" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V32" s="113">
         <v>0</v>
       </c>
-      <c r="W32" s="157"/>
-      <c r="X32" s="157"/>
-      <c r="Y32" s="158"/>
+      <c r="W32" s="192"/>
+      <c r="X32" s="192"/>
+      <c r="Y32" s="193"/>
       <c r="Z32" s="96">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="33" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="74" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="75">
         <v>43859.625</v>
@@ -4315,7 +4315,7 @@
         <v>1265.1399993896484</v>
       </c>
       <c r="U33" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V33" s="111">
         <f>SUM(V34:V43)</f>
@@ -4331,15 +4331,15 @@
         <v>93325.258666992188</v>
       </c>
       <c r="Z33" s="96">
-        <f t="shared" ref="Z31:Z46" si="9">E33-F33-H33-M33-N33-O33-P33-Q33+V33</f>
+        <f t="shared" ref="Z33:Z46" si="9">E33-F33-H33-M33-N33-O33-P33-Q33+V33</f>
         <v>2.6285314561391715E-3</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B34" s="180"/>
-      <c r="C34" s="166"/>
+      <c r="B34" s="159"/>
+      <c r="C34" s="168"/>
       <c r="D34" s="79" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E34" s="112">
         <v>1345.4000244140625</v>
@@ -4392,24 +4392,24 @@
         <v>340</v>
       </c>
       <c r="U34" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V34" s="113">
         <v>1.1756266355514526</v>
       </c>
-      <c r="W34" s="157"/>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="158"/>
+      <c r="W34" s="192"/>
+      <c r="X34" s="192"/>
+      <c r="Y34" s="193"/>
       <c r="Z34" s="96">
         <f t="shared" si="9"/>
         <v>3.5643577575683594E-5</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="181"/>
-      <c r="C35" s="163"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="169"/>
       <c r="D35" s="40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="116">
         <v>1260</v>
@@ -4462,24 +4462,24 @@
         <v>200</v>
       </c>
       <c r="U35" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V35" s="117">
         <v>0</v>
       </c>
-      <c r="W35" s="157"/>
-      <c r="X35" s="157"/>
-      <c r="Y35" s="158"/>
+      <c r="W35" s="192"/>
+      <c r="X35" s="192"/>
+      <c r="Y35" s="193"/>
       <c r="Z35" s="96">
         <f t="shared" si="9"/>
         <v>3.0517578125E-5</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B36" s="181"/>
-      <c r="C36" s="163"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="169"/>
       <c r="D36" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="116">
         <v>554</v>
@@ -4532,24 +4532,24 @@
         <v>141</v>
       </c>
       <c r="U36" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V36" s="117">
         <v>0</v>
       </c>
-      <c r="W36" s="157"/>
-      <c r="X36" s="157"/>
-      <c r="Y36" s="158"/>
+      <c r="W36" s="192"/>
+      <c r="X36" s="192"/>
+      <c r="Y36" s="193"/>
       <c r="Z36" s="96">
         <f t="shared" si="9"/>
         <v>-4.5299530029296875E-6</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B37" s="181"/>
-      <c r="C37" s="163"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="169"/>
       <c r="D37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="116">
         <v>485</v>
@@ -4602,24 +4602,24 @@
         <v>119</v>
       </c>
       <c r="U37" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V37" s="117">
         <v>1.2741637229919434</v>
       </c>
-      <c r="W37" s="157"/>
-      <c r="X37" s="157"/>
-      <c r="Y37" s="158"/>
+      <c r="W37" s="192"/>
+      <c r="X37" s="192"/>
+      <c r="Y37" s="193"/>
       <c r="Z37" s="96">
         <f t="shared" si="9"/>
         <v>5.245208740234375E-6</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B38" s="181"/>
-      <c r="C38" s="163"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="169"/>
       <c r="D38" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E38" s="116">
         <v>600</v>
@@ -4672,24 +4672,24 @@
         <v>0</v>
       </c>
       <c r="U38" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V38" s="117">
         <v>5.7738666534423828</v>
       </c>
-      <c r="W38" s="157"/>
-      <c r="X38" s="157"/>
-      <c r="Y38" s="158"/>
+      <c r="W38" s="192"/>
+      <c r="X38" s="192"/>
+      <c r="Y38" s="193"/>
       <c r="Z38" s="96">
         <f t="shared" si="9"/>
         <v>3.0744171142487176E-3</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B39" s="181"/>
-      <c r="C39" s="163"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="169"/>
       <c r="D39" s="40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="116">
         <v>80</v>
@@ -4742,24 +4742,24 @@
         <v>0</v>
       </c>
       <c r="U39" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V39" s="117">
         <v>0</v>
       </c>
-      <c r="W39" s="157"/>
-      <c r="X39" s="157"/>
-      <c r="Y39" s="158"/>
+      <c r="W39" s="192"/>
+      <c r="X39" s="192"/>
+      <c r="Y39" s="193"/>
       <c r="Z39" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B40" s="181"/>
-      <c r="C40" s="163"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="169"/>
       <c r="D40" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E40" s="116">
         <v>580</v>
@@ -4812,24 +4812,24 @@
         <v>161.69999694824219</v>
       </c>
       <c r="U40" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V40" s="117">
         <v>0</v>
       </c>
-      <c r="W40" s="157"/>
-      <c r="X40" s="157"/>
-      <c r="Y40" s="158"/>
+      <c r="W40" s="192"/>
+      <c r="X40" s="192"/>
+      <c r="Y40" s="193"/>
       <c r="Z40" s="96">
         <f t="shared" si="9"/>
         <v>7.62939453125E-6</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B41" s="181"/>
-      <c r="C41" s="163"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="169"/>
       <c r="D41" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E41" s="116">
         <v>108</v>
@@ -4882,24 +4882,24 @@
         <v>6</v>
       </c>
       <c r="U41" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V41" s="117">
         <v>4.241002082824707</v>
       </c>
-      <c r="W41" s="157"/>
-      <c r="X41" s="157"/>
-      <c r="Y41" s="158"/>
+      <c r="W41" s="192"/>
+      <c r="X41" s="192"/>
+      <c r="Y41" s="193"/>
       <c r="Z41" s="96">
         <f t="shared" si="9"/>
         <v>-2.6226043701171875E-6</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B42" s="181"/>
-      <c r="C42" s="163"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="169"/>
       <c r="D42" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="116">
         <v>297.44000244140625</v>
@@ -4955,19 +4955,19 @@
       <c r="V42" s="117">
         <v>0</v>
       </c>
-      <c r="W42" s="157"/>
-      <c r="X42" s="157"/>
-      <c r="Y42" s="158"/>
+      <c r="W42" s="192"/>
+      <c r="X42" s="192"/>
+      <c r="Y42" s="193"/>
       <c r="Z42" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B43" s="181"/>
-      <c r="C43" s="163"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="169"/>
       <c r="D43" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E43" s="116">
         <v>218.5</v>
@@ -5023,24 +5023,24 @@
         <v>0</v>
       </c>
       <c r="U43" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V43" s="117">
         <v>0</v>
       </c>
-      <c r="W43" s="157"/>
-      <c r="X43" s="157"/>
-      <c r="Y43" s="158"/>
+      <c r="W43" s="192"/>
+      <c r="X43" s="192"/>
+      <c r="Y43" s="193"/>
       <c r="Z43" s="96">
         <f t="shared" si="9"/>
         <v>-5.177688598507757E-4</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B44" s="181"/>
-      <c r="C44" s="163"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="169"/>
       <c r="D44" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="116">
         <v>100</v>
@@ -5093,24 +5093,24 @@
         <v>0</v>
       </c>
       <c r="U44" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V44" s="117">
         <v>0</v>
       </c>
-      <c r="W44" s="157"/>
-      <c r="X44" s="157"/>
-      <c r="Y44" s="158"/>
+      <c r="W44" s="192"/>
+      <c r="X44" s="192"/>
+      <c r="Y44" s="193"/>
       <c r="Z44" s="96">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B45" s="182"/>
-      <c r="C45" s="163"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="169"/>
       <c r="D45" s="41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E45" s="116">
         <v>9.5</v>
@@ -5141,7 +5141,7 @@
         <v>0</v>
       </c>
       <c r="N45" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O45" s="117">
         <v>0</v>
@@ -5163,14 +5163,14 @@
         <v>0</v>
       </c>
       <c r="U45" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V45" s="117">
         <v>0</v>
       </c>
-      <c r="W45" s="157"/>
-      <c r="X45" s="157"/>
-      <c r="Y45" s="158"/>
+      <c r="W45" s="192"/>
+      <c r="X45" s="192"/>
+      <c r="Y45" s="193"/>
       <c r="Z45" s="96" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
@@ -5178,10 +5178,10 @@
     </row>
     <row r="46" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="51"/>
-      <c r="B46" s="182"/>
-      <c r="C46" s="163"/>
+      <c r="B46" s="161"/>
+      <c r="C46" s="169"/>
       <c r="D46" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E46" s="119">
         <v>85</v>
@@ -5235,24 +5235,24 @@
         <v>0</v>
       </c>
       <c r="U46" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V46" s="120">
         <v>0</v>
       </c>
-      <c r="W46" s="157"/>
-      <c r="X46" s="157"/>
-      <c r="Y46" s="158"/>
+      <c r="W46" s="192"/>
+      <c r="X46" s="192"/>
+      <c r="Y46" s="193"/>
       <c r="Z46" s="96">
         <f t="shared" si="9"/>
         <v>3.3056640625019895E-3</v>
       </c>
     </row>
     <row r="47" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="182"/>
-      <c r="C47" s="163"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="169"/>
       <c r="D47" s="80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E47" s="119">
         <v>24</v>
@@ -5283,14 +5283,14 @@
       <c r="S47" s="120"/>
       <c r="T47" s="120"/>
       <c r="U47" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V47" s="120">
         <v>0</v>
       </c>
-      <c r="W47" s="157"/>
-      <c r="X47" s="157"/>
-      <c r="Y47" s="158"/>
+      <c r="W47" s="192"/>
+      <c r="X47" s="192"/>
+      <c r="Y47" s="193"/>
       <c r="Z47" s="96">
         <f>E47-F47-R47+V47</f>
         <v>-3.8205718994142046E-3</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="48" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B48" s="74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" s="75">
         <v>43859.625</v>
@@ -5369,7 +5369,7 @@
         <v>310.2839994430542</v>
       </c>
       <c r="U48" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V48" s="111">
         <f>SUM(V49:V52)</f>
@@ -5390,10 +5390,10 @@
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B49" s="180"/>
-      <c r="C49" s="166"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="168"/>
       <c r="D49" s="79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E49" s="112">
         <v>331</v>
@@ -5446,24 +5446,24 @@
         <v>68</v>
       </c>
       <c r="U49" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V49" s="113">
         <v>6.3649050891399384E-2</v>
       </c>
-      <c r="W49" s="157"/>
-      <c r="X49" s="157"/>
-      <c r="Y49" s="158"/>
+      <c r="W49" s="192"/>
+      <c r="X49" s="192"/>
+      <c r="Y49" s="193"/>
       <c r="Z49" s="96">
         <f t="shared" si="13"/>
         <v>-3.4645199775695801E-6</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B50" s="181"/>
-      <c r="C50" s="163"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="169"/>
       <c r="D50" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E50" s="116">
         <v>140</v>
@@ -5516,24 +5516,24 @@
         <v>0</v>
       </c>
       <c r="U50" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V50" s="117">
         <v>0</v>
       </c>
-      <c r="W50" s="157"/>
-      <c r="X50" s="157"/>
-      <c r="Y50" s="158"/>
+      <c r="W50" s="192"/>
+      <c r="X50" s="192"/>
+      <c r="Y50" s="193"/>
       <c r="Z50" s="96">
         <f t="shared" si="13"/>
         <v>4.291534423828125E-6</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B51" s="182"/>
-      <c r="C51" s="163"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="169"/>
       <c r="D51" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E51" s="116">
         <v>14.699999809265137</v>
@@ -5586,24 +5586,24 @@
         <v>14.699999809265137</v>
       </c>
       <c r="U51" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V51" s="117">
         <v>0</v>
       </c>
-      <c r="W51" s="157"/>
-      <c r="X51" s="157"/>
-      <c r="Y51" s="158"/>
+      <c r="W51" s="192"/>
+      <c r="X51" s="192"/>
+      <c r="Y51" s="193"/>
       <c r="Z51" s="96">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B52" s="182"/>
-      <c r="C52" s="163"/>
+      <c r="B52" s="161"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E52" s="117">
         <v>550.70001220703125</v>
@@ -5657,22 +5657,22 @@
         <v>227.58399963378906</v>
       </c>
       <c r="U52" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V52" s="117">
         <v>0</v>
       </c>
-      <c r="W52" s="157"/>
-      <c r="X52" s="157"/>
-      <c r="Y52" s="158"/>
+      <c r="W52" s="192"/>
+      <c r="X52" s="192"/>
+      <c r="Y52" s="193"/>
       <c r="Z52" s="96">
         <f t="shared" si="13"/>
         <v>-1.4102578162464852E-3</v>
       </c>
     </row>
     <row r="53" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="182"/>
-      <c r="C53" s="163"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="169"/>
       <c r="D53" s="80" t="s">
         <v>4</v>
       </c>
@@ -5727,14 +5727,14 @@
         <v>227.58399963378906</v>
       </c>
       <c r="U53" s="133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V53" s="120">
         <v>0</v>
       </c>
-      <c r="W53" s="157"/>
-      <c r="X53" s="157"/>
-      <c r="Y53" s="158"/>
+      <c r="W53" s="192"/>
+      <c r="X53" s="192"/>
+      <c r="Y53" s="193"/>
       <c r="Z53" s="96">
         <f t="shared" si="13"/>
         <v>4.1723251342773438E-7</v>
@@ -5742,7 +5742,7 @@
     </row>
     <row r="54" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C54" s="83">
         <v>43859.625</v>
@@ -5835,10 +5835,10 @@
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B55" s="180"/>
-      <c r="C55" s="166"/>
+      <c r="B55" s="159"/>
+      <c r="C55" s="168"/>
       <c r="D55" s="78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E55" s="112">
         <v>406</v>
@@ -5891,14 +5891,14 @@
         <v>0</v>
       </c>
       <c r="U55" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V55" s="113">
         <v>0</v>
       </c>
-      <c r="W55" s="157"/>
-      <c r="X55" s="157"/>
-      <c r="Y55" s="158"/>
+      <c r="W55" s="192"/>
+      <c r="X55" s="192"/>
+      <c r="Y55" s="193"/>
       <c r="Z55" s="96">
         <f t="shared" si="13"/>
         <v>-3.337860107421875E-6</v>
@@ -5906,10 +5906,10 @@
     </row>
     <row r="56" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="51"/>
-      <c r="B56" s="198"/>
-      <c r="C56" s="166"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="168"/>
       <c r="D56" s="78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E56" s="132">
         <v>5.1979999542236328</v>
@@ -5940,14 +5940,14 @@
       <c r="S56" s="114"/>
       <c r="T56" s="114"/>
       <c r="U56" s="133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V56" s="113">
         <v>0</v>
       </c>
-      <c r="W56" s="157"/>
-      <c r="X56" s="157"/>
-      <c r="Y56" s="158"/>
+      <c r="W56" s="192"/>
+      <c r="X56" s="192"/>
+      <c r="Y56" s="193"/>
       <c r="Z56" s="96">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5955,10 +5955,10 @@
     </row>
     <row r="57" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="98"/>
-      <c r="B57" s="198"/>
-      <c r="C57" s="163"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="169"/>
       <c r="D57" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E57" s="134">
         <v>25</v>
@@ -5989,24 +5989,24 @@
       <c r="S57" s="135"/>
       <c r="T57" s="135"/>
       <c r="U57" s="130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V57" s="131">
         <v>0</v>
       </c>
-      <c r="W57" s="157"/>
-      <c r="X57" s="157"/>
-      <c r="Y57" s="158"/>
+      <c r="W57" s="192"/>
+      <c r="X57" s="192"/>
+      <c r="Y57" s="193"/>
       <c r="Z57" s="102">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B58" s="198"/>
-      <c r="C58" s="163"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="169"/>
       <c r="D58" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E58" s="117">
         <f>SUM(E59:E60)</f>
@@ -6062,10 +6062,10 @@
         <v>3116.0617523193359</v>
       </c>
       <c r="S58" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T58" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U58" s="118">
         <f>SUM(U59:U60)</f>
@@ -6075,19 +6075,19 @@
         <f>SUM(V59:V60)</f>
         <v>0</v>
       </c>
-      <c r="W58" s="157"/>
-      <c r="X58" s="157"/>
-      <c r="Y58" s="158"/>
+      <c r="W58" s="192"/>
+      <c r="X58" s="192"/>
+      <c r="Y58" s="193"/>
       <c r="Z58" s="96">
         <f t="shared" si="13"/>
         <v>6.0546864006028045E-5</v>
       </c>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B59" s="198"/>
-      <c r="C59" s="163"/>
+      <c r="B59" s="160"/>
+      <c r="C59" s="169"/>
       <c r="D59" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E59" s="112">
         <v>6400</v>
@@ -6134,10 +6134,10 @@
         <v>2952.387939453125</v>
       </c>
       <c r="S59" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T59" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U59" s="115">
         <v>78.849999999999994</v>
@@ -6145,19 +6145,19 @@
       <c r="V59" s="117">
         <v>0</v>
       </c>
-      <c r="W59" s="157"/>
-      <c r="X59" s="157"/>
-      <c r="Y59" s="158"/>
+      <c r="W59" s="192"/>
+      <c r="X59" s="192"/>
+      <c r="Y59" s="193"/>
       <c r="Z59" s="96">
         <f t="shared" si="13"/>
         <v>6.0546874919964466E-5</v>
       </c>
     </row>
     <row r="60" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="182"/>
-      <c r="C60" s="163"/>
+      <c r="B60" s="161"/>
+      <c r="C60" s="169"/>
       <c r="D60" s="80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="119">
         <v>321</v>
@@ -6204,10 +6204,10 @@
         <v>163.67381286621094</v>
       </c>
       <c r="S60" s="128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T60" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U60" s="122">
         <v>61.326187133799998</v>
@@ -6215,17 +6215,17 @@
       <c r="V60" s="120">
         <v>0</v>
       </c>
-      <c r="W60" s="157"/>
-      <c r="X60" s="157"/>
-      <c r="Y60" s="158"/>
+      <c r="W60" s="192"/>
+      <c r="X60" s="192"/>
+      <c r="Y60" s="193"/>
       <c r="Z60" s="96">
         <f t="shared" si="13"/>
         <v>-1.0942358130705543E-11</v>
       </c>
     </row>
     <row r="61" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="206" t="s">
-        <v>155</v>
+      <c r="B61" s="173" t="s">
+        <v>154</v>
       </c>
       <c r="C61" s="76">
         <v>43859.583333333336</v>
@@ -6272,7 +6272,7 @@
         <v>73.111000061035156</v>
       </c>
       <c r="O61" s="111">
-        <f t="shared" si="17"/>
+        <f>SUM(O65:O73,O81:O83)</f>
         <v>0</v>
       </c>
       <c r="P61" s="111">
@@ -6318,10 +6318,10 @@
       </c>
     </row>
     <row r="62" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="207"/>
-      <c r="C62" s="176"/>
+      <c r="B62" s="174"/>
+      <c r="C62" s="195"/>
       <c r="D62" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E62" s="109">
         <f>E65+E67+E68+E69+E70+E71+E74+E75+E77+E78+E79+E83+E81</f>
@@ -6401,7 +6401,7 @@
       </c>
       <c r="X62" s="16"/>
       <c r="Y62" s="91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z62" s="96">
         <f t="shared" si="13"/>
@@ -6410,9 +6410,9 @@
     </row>
     <row r="63" spans="1:26" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B63" s="104"/>
-      <c r="C63" s="163"/>
+      <c r="C63" s="169"/>
       <c r="D63" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E63" s="109">
         <f>E66+E72+E82+E76</f>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="X63" s="16"/>
       <c r="Y63" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z63" s="96">
         <f t="shared" si="13"/>
@@ -6500,9 +6500,9 @@
     </row>
     <row r="64" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="104"/>
-      <c r="C64" s="163"/>
+      <c r="C64" s="169"/>
       <c r="D64" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E64" s="127">
         <f>SUM(E65:E72)</f>
@@ -6572,9 +6572,9 @@
       <c r="V64" s="131">
         <v>4.4019999504089355</v>
       </c>
-      <c r="W64" s="161"/>
-      <c r="X64" s="157"/>
-      <c r="Y64" s="158"/>
+      <c r="W64" s="194"/>
+      <c r="X64" s="192"/>
+      <c r="Y64" s="193"/>
       <c r="Z64" s="96">
         <f t="shared" si="13"/>
         <v>-4.2309761047363281E-3</v>
@@ -6582,9 +6582,9 @@
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B65" s="104"/>
-      <c r="C65" s="163"/>
+      <c r="C65" s="169"/>
       <c r="D65" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E65" s="112">
         <v>2400</v>
@@ -6637,14 +6637,14 @@
         <v>800</v>
       </c>
       <c r="U65" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V65" s="117">
         <v>0</v>
       </c>
-      <c r="W65" s="157"/>
-      <c r="X65" s="157"/>
-      <c r="Y65" s="158"/>
+      <c r="W65" s="192"/>
+      <c r="X65" s="192"/>
+      <c r="Y65" s="193"/>
       <c r="Z65" s="96">
         <f t="shared" si="13"/>
         <v>2.6702880859375E-5</v>
@@ -6652,9 +6652,9 @@
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B66" s="104"/>
-      <c r="C66" s="163"/>
+      <c r="C66" s="169"/>
       <c r="D66" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E66" s="116">
         <v>1260</v>
@@ -6707,14 +6707,14 @@
         <v>336</v>
       </c>
       <c r="U66" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V66" s="117">
         <v>1.9900000095367432</v>
       </c>
-      <c r="W66" s="157"/>
-      <c r="X66" s="157"/>
-      <c r="Y66" s="158"/>
+      <c r="W66" s="192"/>
+      <c r="X66" s="192"/>
+      <c r="Y66" s="193"/>
       <c r="Z66" s="96">
         <f t="shared" si="13"/>
         <v>-8.0564022064208984E-3</v>
@@ -6722,9 +6722,9 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B67" s="104"/>
-      <c r="C67" s="163"/>
+      <c r="C67" s="169"/>
       <c r="D67" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="116">
         <v>1323.9599609375</v>
@@ -6777,14 +6777,14 @@
         <v>320.0789794921875</v>
       </c>
       <c r="U67" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V67" s="117">
         <v>0</v>
       </c>
-      <c r="W67" s="157"/>
-      <c r="X67" s="157"/>
-      <c r="Y67" s="158"/>
+      <c r="W67" s="192"/>
+      <c r="X67" s="192"/>
+      <c r="Y67" s="193"/>
       <c r="Z67" s="96">
         <f t="shared" si="13"/>
         <v>-2.956390380859375E-5</v>
@@ -6792,9 +6792,9 @@
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B68" s="104"/>
-      <c r="C68" s="163"/>
+      <c r="C68" s="169"/>
       <c r="D68" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E68" s="116">
         <v>485.89999389648438</v>
@@ -6847,14 +6847,14 @@
         <v>117</v>
       </c>
       <c r="U68" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V68" s="117">
         <v>2.380000114440918</v>
       </c>
-      <c r="W68" s="157"/>
-      <c r="X68" s="157"/>
-      <c r="Y68" s="158"/>
+      <c r="W68" s="192"/>
+      <c r="X68" s="192"/>
+      <c r="Y68" s="193"/>
       <c r="Z68" s="96">
         <f t="shared" si="13"/>
         <v>3.5753250122070313E-3</v>
@@ -6862,9 +6862,9 @@
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B69" s="104"/>
-      <c r="C69" s="163"/>
+      <c r="C69" s="169"/>
       <c r="D69" s="40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E69" s="116">
         <v>465</v>
@@ -6917,14 +6917,14 @@
         <v>0</v>
       </c>
       <c r="U69" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V69" s="117">
         <v>0</v>
       </c>
-      <c r="W69" s="157"/>
-      <c r="X69" s="157"/>
-      <c r="Y69" s="158"/>
+      <c r="W69" s="192"/>
+      <c r="X69" s="192"/>
+      <c r="Y69" s="193"/>
       <c r="Z69" s="96">
         <f t="shared" si="13"/>
         <v>2.44140625E-4</v>
@@ -6932,9 +6932,9 @@
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B70" s="104"/>
-      <c r="C70" s="163"/>
+      <c r="C70" s="169"/>
       <c r="D70" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E70" s="116">
         <v>208</v>
@@ -6987,14 +6987,14 @@
         <v>0</v>
       </c>
       <c r="U70" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V70" s="117">
         <v>0</v>
       </c>
-      <c r="W70" s="157"/>
-      <c r="X70" s="157"/>
-      <c r="Y70" s="158"/>
+      <c r="W70" s="192"/>
+      <c r="X70" s="192"/>
+      <c r="Y70" s="193"/>
       <c r="Z70" s="96">
         <f t="shared" si="13"/>
         <v>7.62939453125E-6</v>
@@ -7002,9 +7002,9 @@
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B71" s="104"/>
-      <c r="C71" s="163"/>
+      <c r="C71" s="169"/>
       <c r="D71" s="40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71" s="116">
         <v>85</v>
@@ -7057,14 +7057,14 @@
         <v>0</v>
       </c>
       <c r="U71" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V71" s="117">
         <v>3.2000001519918442E-2</v>
       </c>
-      <c r="W71" s="157"/>
-      <c r="X71" s="157"/>
-      <c r="Y71" s="158"/>
+      <c r="W71" s="192"/>
+      <c r="X71" s="192"/>
+      <c r="Y71" s="193"/>
       <c r="Z71" s="96">
         <f t="shared" si="13"/>
         <v>2.3208558559417725E-6</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B72" s="104"/>
-      <c r="C72" s="163"/>
+      <c r="C72" s="169"/>
       <c r="D72" s="40" t="s">
         <v>1</v>
       </c>
@@ -7127,14 +7127,14 @@
         <v>0</v>
       </c>
       <c r="U72" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V72" s="117">
         <v>0</v>
       </c>
-      <c r="W72" s="157"/>
-      <c r="X72" s="157"/>
-      <c r="Y72" s="158"/>
+      <c r="W72" s="192"/>
+      <c r="X72" s="192"/>
+      <c r="Y72" s="193"/>
       <c r="Z72" s="96">
         <f t="shared" si="13"/>
         <v>-9.5367431640625E-7</v>
@@ -7143,9 +7143,9 @@
     <row r="73" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="98"/>
       <c r="B73" s="104"/>
-      <c r="C73" s="163"/>
+      <c r="C73" s="169"/>
       <c r="D73" s="80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E73" s="134">
         <v>610.8800048828125</v>
@@ -7198,14 +7198,14 @@
         <v>0</v>
       </c>
       <c r="U73" s="127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V73" s="131">
         <v>11.37368106842041</v>
       </c>
-      <c r="W73" s="157"/>
-      <c r="X73" s="157"/>
-      <c r="Y73" s="158"/>
+      <c r="W73" s="192"/>
+      <c r="X73" s="192"/>
+      <c r="Y73" s="193"/>
       <c r="Z73" s="96">
         <f t="shared" si="13"/>
         <v>9.5367431640625E-7</v>
@@ -7213,9 +7213,9 @@
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B74" s="104"/>
-      <c r="C74" s="163"/>
+      <c r="C74" s="169"/>
       <c r="D74" s="80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E74" s="119">
         <v>320</v>
@@ -7262,20 +7262,20 @@
         <v>215</v>
       </c>
       <c r="S74" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T74" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U74" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V74" s="117">
         <v>0</v>
       </c>
-      <c r="W74" s="157"/>
-      <c r="X74" s="157"/>
-      <c r="Y74" s="158"/>
+      <c r="W74" s="192"/>
+      <c r="X74" s="192"/>
+      <c r="Y74" s="193"/>
       <c r="Z74" s="96">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -7283,9 +7283,9 @@
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B75" s="104"/>
-      <c r="C75" s="163"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="80" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E75" s="119">
         <v>12</v>
@@ -7301,22 +7301,22 @@
         <v>0</v>
       </c>
       <c r="I75" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J75" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K75" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L75" s="135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M75" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N75" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O75" s="120">
         <v>0</v>
@@ -7332,20 +7332,20 @@
         <v>6.820000171661377</v>
       </c>
       <c r="S75" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T75" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U75" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V75" s="117">
         <v>0</v>
       </c>
-      <c r="W75" s="157"/>
-      <c r="X75" s="157"/>
-      <c r="Y75" s="158"/>
+      <c r="W75" s="192"/>
+      <c r="X75" s="192"/>
+      <c r="Y75" s="193"/>
       <c r="Z75" s="96" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
@@ -7353,9 +7353,9 @@
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B76" s="104"/>
-      <c r="C76" s="163"/>
+      <c r="C76" s="169"/>
       <c r="D76" s="80" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E76" s="119">
         <v>10</v>
@@ -7371,22 +7371,22 @@
         <v>0</v>
       </c>
       <c r="I76" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J76" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K76" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L76" s="135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M76" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N76" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O76" s="120">
         <v>0</v>
@@ -7402,20 +7402,20 @@
         <v>1.5099999904632568</v>
       </c>
       <c r="S76" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T76" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U76" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V76" s="117">
         <v>0</v>
       </c>
-      <c r="W76" s="157"/>
-      <c r="X76" s="157"/>
-      <c r="Y76" s="158"/>
+      <c r="W76" s="192"/>
+      <c r="X76" s="192"/>
+      <c r="Y76" s="193"/>
       <c r="Z76" s="96" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
@@ -7423,9 +7423,9 @@
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B77" s="104"/>
-      <c r="C77" s="163"/>
+      <c r="C77" s="169"/>
       <c r="D77" s="80" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E77" s="119">
         <f>18+24</f>
@@ -7444,22 +7444,22 @@
         <v>0</v>
       </c>
       <c r="I77" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J77" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K77" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L77" s="135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M77" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N77" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O77" s="119">
         <f>0+0</f>
@@ -7478,21 +7478,21 @@
         <v>14.891</v>
       </c>
       <c r="S77" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T77" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U77" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V77" s="117">
         <f>0+0</f>
         <v>0</v>
       </c>
-      <c r="W77" s="157"/>
-      <c r="X77" s="157"/>
-      <c r="Y77" s="158"/>
+      <c r="W77" s="192"/>
+      <c r="X77" s="192"/>
+      <c r="Y77" s="193"/>
       <c r="Z77" s="96" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
@@ -7500,9 +7500,9 @@
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B78" s="104"/>
-      <c r="C78" s="163"/>
+      <c r="C78" s="169"/>
       <c r="D78" s="80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78" s="119">
         <v>20.480001449584961</v>
@@ -7518,22 +7518,22 @@
         <v>0</v>
       </c>
       <c r="I78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L78" s="135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O78" s="119">
         <v>0</v>
@@ -7549,20 +7549,20 @@
         <v>0</v>
       </c>
       <c r="S78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T78" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U78" s="122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V78" s="117">
         <v>0</v>
       </c>
-      <c r="W78" s="157"/>
-      <c r="X78" s="157"/>
-      <c r="Y78" s="158"/>
+      <c r="W78" s="192"/>
+      <c r="X78" s="192"/>
+      <c r="Y78" s="193"/>
       <c r="Z78" s="96" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
@@ -7570,9 +7570,9 @@
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B79" s="104"/>
-      <c r="C79" s="163"/>
+      <c r="C79" s="169"/>
       <c r="D79" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E79" s="116">
         <v>206.39999389648438</v>
@@ -7625,14 +7625,14 @@
         <v>0</v>
       </c>
       <c r="U79" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V79" s="117">
         <v>11.37368106842041</v>
       </c>
-      <c r="W79" s="157"/>
-      <c r="X79" s="157"/>
-      <c r="Y79" s="158"/>
+      <c r="W79" s="192"/>
+      <c r="X79" s="192"/>
+      <c r="Y79" s="193"/>
       <c r="Z79" s="96">
         <f t="shared" si="13"/>
         <v>-6.67572021484375E-6</v>
@@ -7640,9 +7640,9 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B80" s="104"/>
-      <c r="C80" s="163"/>
+      <c r="C80" s="169"/>
       <c r="D80" s="79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E80" s="112">
         <f>SUM(E81:E83)</f>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K80" s="113">
         <f>SUM(K81:K82)</f>
@@ -7700,10 +7700,10 @@
         <v>3847.728541970253</v>
       </c>
       <c r="S80" s="126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T80" s="126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U80" s="115">
         <f>SUM(U81:U82)</f>
@@ -7712,9 +7712,9 @@
       <c r="V80" s="113">
         <v>0</v>
       </c>
-      <c r="W80" s="157"/>
-      <c r="X80" s="157"/>
-      <c r="Y80" s="158"/>
+      <c r="W80" s="192"/>
+      <c r="X80" s="192"/>
+      <c r="Y80" s="193"/>
       <c r="Z80" s="96">
         <f t="shared" ref="Z80:Z111" si="21">E80-F80-H80-M80-N80-O80-P80-Q80+V80</f>
         <v>-5.4211139649851248E-4</v>
@@ -7722,9 +7722,9 @@
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B81" s="104"/>
-      <c r="C81" s="163"/>
+      <c r="C81" s="169"/>
       <c r="D81" s="79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E81" s="112">
         <v>6000</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K81" s="113">
         <v>0</v>
@@ -7773,10 +7773,10 @@
         <v>1857.4613037109375</v>
       </c>
       <c r="S81" s="126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T81" s="126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U81" s="115">
         <v>366.68</v>
@@ -7784,9 +7784,9 @@
       <c r="V81" s="117">
         <v>0</v>
       </c>
-      <c r="W81" s="157"/>
-      <c r="X81" s="157"/>
-      <c r="Y81" s="158"/>
+      <c r="W81" s="192"/>
+      <c r="X81" s="192"/>
+      <c r="Y81" s="193"/>
       <c r="Z81" s="96">
         <f t="shared" si="21"/>
         <v>-3.037109372598934E-4</v>
@@ -7795,9 +7795,9 @@
     <row r="82" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="51"/>
       <c r="B82" s="104"/>
-      <c r="C82" s="163"/>
+      <c r="C82" s="169"/>
       <c r="D82" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E82" s="119">
         <v>2997</v>
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K82" s="120">
         <v>0</v>
@@ -7846,10 +7846,10 @@
         <v>1988.96923828125</v>
       </c>
       <c r="S82" s="124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T82" s="124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U82" s="133">
         <v>9.02</v>
@@ -7857,9 +7857,9 @@
       <c r="V82" s="120">
         <v>0</v>
       </c>
-      <c r="W82" s="157"/>
-      <c r="X82" s="157"/>
-      <c r="Y82" s="158"/>
+      <c r="W82" s="192"/>
+      <c r="X82" s="192"/>
+      <c r="Y82" s="193"/>
       <c r="Z82" s="96">
         <f t="shared" si="21"/>
         <v>-2.382812499490683E-4</v>
@@ -7867,9 +7867,9 @@
     </row>
     <row r="83" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B83" s="104"/>
-      <c r="C83" s="163"/>
+      <c r="C83" s="169"/>
       <c r="D83" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E83" s="117">
         <v>5.1999998092651367</v>
@@ -7885,22 +7885,22 @@
         <v>0</v>
       </c>
       <c r="I83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O83" s="117">
         <v>0</v>
@@ -7916,28 +7916,28 @@
         <v>1.2979999780654907</v>
       </c>
       <c r="S83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T83" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U83" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V83" s="117">
         <v>0</v>
       </c>
-      <c r="W83" s="157"/>
-      <c r="X83" s="157"/>
-      <c r="Y83" s="158"/>
+      <c r="W83" s="192"/>
+      <c r="X83" s="192"/>
+      <c r="Y83" s="193"/>
       <c r="Z83" s="96" t="e">
         <f t="shared" si="21"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="84" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="206" t="s">
-        <v>156</v>
+      <c r="B84" s="173" t="s">
+        <v>155</v>
       </c>
       <c r="C84" s="75">
         <v>43859.208333333336</v>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="U84" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V84" s="111">
         <f>V85</f>
@@ -8029,10 +8029,10 @@
       </c>
     </row>
     <row r="85" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="207"/>
+      <c r="B85" s="174"/>
       <c r="C85" s="103"/>
       <c r="D85" s="79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" s="112">
         <v>17</v>
@@ -8085,14 +8085,14 @@
         <v>0</v>
       </c>
       <c r="U85" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V85" s="113">
         <v>0</v>
       </c>
-      <c r="W85" s="157"/>
-      <c r="X85" s="157"/>
-      <c r="Y85" s="158"/>
+      <c r="W85" s="192"/>
+      <c r="X85" s="192"/>
+      <c r="Y85" s="193"/>
       <c r="Z85" s="96">
         <f t="shared" si="21"/>
         <v>-4.76837158203125E-7</v>
@@ -8100,7 +8100,7 @@
     </row>
     <row r="86" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B86" s="74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C86" s="75">
         <v>43859.166666666664</v>
@@ -8194,10 +8194,10 @@
     </row>
     <row r="87" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="51"/>
-      <c r="B87" s="183"/>
-      <c r="C87" s="162"/>
+      <c r="B87" s="166"/>
+      <c r="C87" s="188"/>
       <c r="D87" s="81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E87" s="137">
         <f>SUM(E88:E101)</f>
@@ -8264,25 +8264,25 @@
         <v>1263.3000030517578</v>
       </c>
       <c r="U87" s="125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V87" s="138">
         <f>SUM(V88:V101)</f>
         <v>3.4464898109436035</v>
       </c>
-      <c r="W87" s="161"/>
-      <c r="X87" s="157"/>
-      <c r="Y87" s="158"/>
+      <c r="W87" s="194"/>
+      <c r="X87" s="192"/>
+      <c r="Y87" s="193"/>
       <c r="Z87" s="96">
         <f t="shared" si="21"/>
         <v>-2.09808349609375E-5</v>
       </c>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B88" s="202"/>
-      <c r="C88" s="163"/>
+      <c r="B88" s="167"/>
+      <c r="C88" s="169"/>
       <c r="D88" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E88" s="116">
         <v>79</v>
@@ -8335,24 +8335,24 @@
         <v>15</v>
       </c>
       <c r="U88" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V88" s="117">
         <v>0</v>
       </c>
-      <c r="W88" s="157"/>
-      <c r="X88" s="157"/>
-      <c r="Y88" s="158"/>
+      <c r="W88" s="192"/>
+      <c r="X88" s="192"/>
+      <c r="Y88" s="193"/>
       <c r="Z88" s="96">
         <f t="shared" si="21"/>
         <v>-4.76837158203125E-7</v>
       </c>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B89" s="202"/>
-      <c r="C89" s="163"/>
+      <c r="B89" s="167"/>
+      <c r="C89" s="169"/>
       <c r="D89" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E89" s="116">
         <v>18</v>
@@ -8405,24 +8405,24 @@
         <v>0</v>
       </c>
       <c r="U89" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V89" s="117">
         <v>0</v>
       </c>
-      <c r="W89" s="157"/>
-      <c r="X89" s="157"/>
-      <c r="Y89" s="158"/>
+      <c r="W89" s="192"/>
+      <c r="X89" s="192"/>
+      <c r="Y89" s="193"/>
       <c r="Z89" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B90" s="202"/>
-      <c r="C90" s="163"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="169"/>
       <c r="D90" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E90" s="116">
         <v>270</v>
@@ -8475,24 +8475,24 @@
         <v>114</v>
       </c>
       <c r="U90" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V90" s="117">
         <v>0</v>
       </c>
-      <c r="W90" s="157"/>
-      <c r="X90" s="157"/>
-      <c r="Y90" s="158"/>
+      <c r="W90" s="192"/>
+      <c r="X90" s="192"/>
+      <c r="Y90" s="193"/>
       <c r="Z90" s="96">
         <f t="shared" si="21"/>
         <v>1.9073486328125E-6</v>
       </c>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B91" s="202"/>
-      <c r="C91" s="163"/>
+      <c r="B91" s="167"/>
+      <c r="C91" s="169"/>
       <c r="D91" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E91" s="116">
         <v>540</v>
@@ -8545,24 +8545,24 @@
         <v>50</v>
       </c>
       <c r="U91" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V91" s="117">
         <v>0</v>
       </c>
-      <c r="W91" s="157"/>
-      <c r="X91" s="157"/>
-      <c r="Y91" s="158"/>
+      <c r="W91" s="192"/>
+      <c r="X91" s="192"/>
+      <c r="Y91" s="193"/>
       <c r="Z91" s="96">
         <f t="shared" si="21"/>
         <v>-1.1444091796875E-5</v>
       </c>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B92" s="202"/>
-      <c r="C92" s="163"/>
+      <c r="B92" s="167"/>
+      <c r="C92" s="169"/>
       <c r="D92" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E92" s="116">
         <v>1110</v>
@@ -8615,24 +8615,24 @@
         <v>600</v>
       </c>
       <c r="U92" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V92" s="117">
         <v>0</v>
       </c>
-      <c r="W92" s="157"/>
-      <c r="X92" s="157"/>
-      <c r="Y92" s="158"/>
+      <c r="W92" s="192"/>
+      <c r="X92" s="192"/>
+      <c r="Y92" s="193"/>
       <c r="Z92" s="96">
         <f t="shared" si="21"/>
         <v>-1.52587890625E-5</v>
       </c>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B93" s="202"/>
-      <c r="C93" s="163"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="169"/>
       <c r="D93" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E93" s="116">
         <v>320.29998779296875</v>
@@ -8685,24 +8685,24 @@
         <v>143.30000305175781</v>
       </c>
       <c r="U93" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V93" s="117">
         <v>3.4464898109436035</v>
       </c>
-      <c r="W93" s="157"/>
-      <c r="X93" s="157"/>
-      <c r="Y93" s="158"/>
+      <c r="W93" s="192"/>
+      <c r="X93" s="192"/>
+      <c r="Y93" s="193"/>
       <c r="Z93" s="96">
         <f t="shared" si="21"/>
         <v>-1.6689300537109375E-5</v>
       </c>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B94" s="202"/>
-      <c r="C94" s="163"/>
+      <c r="B94" s="167"/>
+      <c r="C94" s="169"/>
       <c r="D94" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E94" s="116">
         <v>12</v>
@@ -8755,24 +8755,24 @@
         <v>0</v>
       </c>
       <c r="U94" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V94" s="117">
         <v>0</v>
       </c>
-      <c r="W94" s="157"/>
-      <c r="X94" s="157"/>
-      <c r="Y94" s="158"/>
+      <c r="W94" s="192"/>
+      <c r="X94" s="192"/>
+      <c r="Y94" s="193"/>
       <c r="Z94" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B95" s="202"/>
-      <c r="C95" s="163"/>
+      <c r="B95" s="167"/>
+      <c r="C95" s="169"/>
       <c r="D95" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" s="116">
         <v>18</v>
@@ -8825,24 +8825,24 @@
         <v>0</v>
       </c>
       <c r="U95" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V95" s="117">
         <v>0</v>
       </c>
-      <c r="W95" s="157"/>
-      <c r="X95" s="157"/>
-      <c r="Y95" s="158"/>
+      <c r="W95" s="192"/>
+      <c r="X95" s="192"/>
+      <c r="Y95" s="193"/>
       <c r="Z95" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B96" s="202"/>
-      <c r="C96" s="163"/>
+      <c r="B96" s="167"/>
+      <c r="C96" s="169"/>
       <c r="D96" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="116">
         <v>12</v>
@@ -8895,24 +8895,24 @@
         <v>0</v>
       </c>
       <c r="U96" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V96" s="117">
         <v>0</v>
       </c>
-      <c r="W96" s="157"/>
-      <c r="X96" s="157"/>
-      <c r="Y96" s="158"/>
+      <c r="W96" s="192"/>
+      <c r="X96" s="192"/>
+      <c r="Y96" s="193"/>
       <c r="Z96" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B97" s="202"/>
-      <c r="C97" s="163"/>
+      <c r="B97" s="167"/>
+      <c r="C97" s="169"/>
       <c r="D97" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E97" s="116">
         <v>260</v>
@@ -8965,24 +8965,24 @@
         <v>0</v>
       </c>
       <c r="U97" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V97" s="117">
         <v>0</v>
       </c>
-      <c r="W97" s="157"/>
-      <c r="X97" s="157"/>
-      <c r="Y97" s="158"/>
+      <c r="W97" s="192"/>
+      <c r="X97" s="192"/>
+      <c r="Y97" s="193"/>
       <c r="Z97" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B98" s="202"/>
-      <c r="C98" s="163"/>
+      <c r="B98" s="167"/>
+      <c r="C98" s="169"/>
       <c r="D98" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E98" s="116">
         <v>708</v>
@@ -9035,24 +9035,24 @@
         <v>53</v>
       </c>
       <c r="U98" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V98" s="117">
         <v>0</v>
       </c>
-      <c r="W98" s="157"/>
-      <c r="X98" s="157"/>
-      <c r="Y98" s="158"/>
+      <c r="W98" s="192"/>
+      <c r="X98" s="192"/>
+      <c r="Y98" s="193"/>
       <c r="Z98" s="96">
         <f t="shared" si="21"/>
         <v>3.0517578125E-5</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B99" s="202"/>
-      <c r="C99" s="163"/>
+      <c r="B99" s="167"/>
+      <c r="C99" s="169"/>
       <c r="D99" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E99" s="116">
         <v>515</v>
@@ -9105,14 +9105,14 @@
         <v>288</v>
       </c>
       <c r="U99" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V99" s="117">
         <v>0</v>
       </c>
-      <c r="W99" s="157"/>
-      <c r="X99" s="157"/>
-      <c r="Y99" s="158"/>
+      <c r="W99" s="192"/>
+      <c r="X99" s="192"/>
+      <c r="Y99" s="193"/>
       <c r="Z99" s="96">
         <f t="shared" si="21"/>
         <v>-1.9073486328125E-6</v>
@@ -9120,10 +9120,10 @@
     </row>
     <row r="100" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="51"/>
-      <c r="B100" s="202"/>
-      <c r="C100" s="163"/>
+      <c r="B100" s="167"/>
+      <c r="C100" s="169"/>
       <c r="D100" s="80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E100" s="136">
         <v>24</v>
@@ -9176,14 +9176,14 @@
         <v>0</v>
       </c>
       <c r="U100" s="127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V100" s="131">
         <v>0</v>
       </c>
-      <c r="W100" s="157"/>
-      <c r="X100" s="157"/>
-      <c r="Y100" s="158"/>
+      <c r="W100" s="192"/>
+      <c r="X100" s="192"/>
+      <c r="Y100" s="193"/>
       <c r="Z100" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -9191,10 +9191,10 @@
     </row>
     <row r="101" spans="1:26" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="51"/>
-      <c r="B101" s="202"/>
-      <c r="C101" s="163"/>
+      <c r="B101" s="167"/>
+      <c r="C101" s="169"/>
       <c r="D101" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E101" s="134">
         <v>157.39999389648438</v>
@@ -9247,24 +9247,24 @@
         <v>0</v>
       </c>
       <c r="U101" s="130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V101" s="135">
         <v>0</v>
       </c>
-      <c r="W101" s="157"/>
-      <c r="X101" s="157"/>
-      <c r="Y101" s="158"/>
+      <c r="W101" s="192"/>
+      <c r="X101" s="192"/>
+      <c r="Y101" s="193"/>
       <c r="Z101" s="96">
         <f t="shared" si="21"/>
         <v>-7.62939453125E-6</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B102" s="202"/>
-      <c r="C102" s="163"/>
+      <c r="B102" s="167"/>
+      <c r="C102" s="169"/>
       <c r="D102" s="39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E102" s="116">
         <f>SUM(E103:E106)</f>
@@ -9287,7 +9287,7 @@
         <v>233.6</v>
       </c>
       <c r="J102" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K102" s="117">
         <f>SUM(K103:K106)</f>
@@ -9322,10 +9322,10 @@
         <v>5641.1427783966064</v>
       </c>
       <c r="S102" s="139" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T102" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U102" s="118">
         <f>SUM(U103:U106)</f>
@@ -9335,19 +9335,19 @@
         <f>SUM(V103:V106)</f>
         <v>0</v>
       </c>
-      <c r="W102" s="157"/>
-      <c r="X102" s="157"/>
-      <c r="Y102" s="158"/>
+      <c r="W102" s="192"/>
+      <c r="X102" s="192"/>
+      <c r="Y102" s="193"/>
       <c r="Z102" s="96">
         <f t="shared" si="21"/>
         <v>-3.9501194441982079E-4</v>
       </c>
     </row>
     <row r="103" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="202"/>
-      <c r="C103" s="163"/>
+      <c r="B103" s="167"/>
+      <c r="C103" s="169"/>
       <c r="D103" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E103" s="132">
         <v>662.4000244140625</v>
@@ -9368,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K103" s="113">
         <v>0</v>
@@ -9396,10 +9396,10 @@
         <v>331.88800048828125</v>
       </c>
       <c r="S103" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T103" s="113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U103" s="133">
         <v>0.01</v>
@@ -9407,19 +9407,19 @@
       <c r="V103" s="114">
         <v>0</v>
       </c>
-      <c r="W103" s="157"/>
-      <c r="X103" s="157"/>
-      <c r="Y103" s="158"/>
+      <c r="W103" s="192"/>
+      <c r="X103" s="192"/>
+      <c r="Y103" s="193"/>
       <c r="Z103" s="96">
         <f t="shared" si="21"/>
         <v>2.3925781249545253E-5</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B104" s="202"/>
-      <c r="C104" s="163"/>
+      <c r="B104" s="167"/>
+      <c r="C104" s="169"/>
       <c r="D104" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E104" s="119">
         <v>4500</v>
@@ -9440,7 +9440,7 @@
         <v>233.6</v>
       </c>
       <c r="J104" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K104" s="117">
         <v>467.2</v>
@@ -9468,10 +9468,10 @@
         <v>2821.96630859375</v>
       </c>
       <c r="S104" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T104" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U104" s="122">
         <v>866.83369140629998</v>
@@ -9479,19 +9479,19 @@
       <c r="V104" s="120">
         <v>0</v>
       </c>
-      <c r="W104" s="157"/>
-      <c r="X104" s="157"/>
-      <c r="Y104" s="158"/>
+      <c r="W104" s="192"/>
+      <c r="X104" s="192"/>
+      <c r="Y104" s="193"/>
       <c r="Z104" s="96">
         <f t="shared" si="21"/>
         <v>-5.0022208597511053E-11</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B105" s="202"/>
-      <c r="C105" s="163"/>
+      <c r="B105" s="167"/>
+      <c r="C105" s="169"/>
       <c r="D105" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" s="119">
         <v>3840</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K105" s="117">
         <v>0</v>
@@ -9540,10 +9540,10 @@
         <v>2475.767333984375</v>
       </c>
       <c r="S105" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T105" s="117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U105" s="122">
         <v>20.198949623099999</v>
@@ -9551,19 +9551,19 @@
       <c r="V105" s="120">
         <v>0</v>
       </c>
-      <c r="W105" s="157"/>
-      <c r="X105" s="157"/>
-      <c r="Y105" s="158"/>
+      <c r="W105" s="192"/>
+      <c r="X105" s="192"/>
+      <c r="Y105" s="193"/>
       <c r="Z105" s="96">
         <f t="shared" si="21"/>
         <v>-2.8360747501210426E-4</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="202"/>
-      <c r="C106" s="163"/>
+      <c r="B106" s="167"/>
+      <c r="C106" s="169"/>
       <c r="D106" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="119">
         <v>86</v>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K106" s="120">
         <v>0</v>
@@ -9612,10 +9612,10 @@
         <v>11.521135330200195</v>
       </c>
       <c r="S106" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T106" s="120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U106" s="122">
         <v>0</v>
@@ -9623,9 +9623,9 @@
       <c r="V106" s="140">
         <v>0</v>
       </c>
-      <c r="W106" s="157"/>
-      <c r="X106" s="157"/>
-      <c r="Y106" s="158"/>
+      <c r="W106" s="192"/>
+      <c r="X106" s="192"/>
+      <c r="Y106" s="193"/>
       <c r="Z106" s="96">
         <f t="shared" si="21"/>
         <v>-1.3533020019451669E-4</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="107" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B107" s="74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C107" s="75">
         <v>43859.208333333336</v>
@@ -9704,7 +9704,7 @@
         <v>400</v>
       </c>
       <c r="U107" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V107" s="110">
         <f>SUM(V108:V115)</f>
@@ -9725,10 +9725,10 @@
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B108" s="198"/>
-      <c r="C108" s="166"/>
+      <c r="B108" s="160"/>
+      <c r="C108" s="168"/>
       <c r="D108" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E108" s="112">
         <v>1190</v>
@@ -9781,24 +9781,24 @@
         <v>400</v>
       </c>
       <c r="U108" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V108" s="113">
         <v>0</v>
       </c>
-      <c r="W108" s="157"/>
-      <c r="X108" s="157"/>
-      <c r="Y108" s="158"/>
+      <c r="W108" s="192"/>
+      <c r="X108" s="192"/>
+      <c r="Y108" s="193"/>
       <c r="Z108" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B109" s="198"/>
-      <c r="C109" s="163"/>
+      <c r="B109" s="160"/>
+      <c r="C109" s="169"/>
       <c r="D109" s="39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E109" s="116">
         <v>148.77000427246094</v>
@@ -9851,24 +9851,24 @@
         <v>0</v>
       </c>
       <c r="U109" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V109" s="117">
         <v>0</v>
       </c>
-      <c r="W109" s="157"/>
-      <c r="X109" s="157"/>
-      <c r="Y109" s="158"/>
+      <c r="W109" s="192"/>
+      <c r="X109" s="192"/>
+      <c r="Y109" s="193"/>
       <c r="Z109" s="96">
         <f t="shared" si="21"/>
         <v>3.337860107421875E-6</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B110" s="198"/>
-      <c r="C110" s="163"/>
+      <c r="B110" s="160"/>
+      <c r="C110" s="169"/>
       <c r="D110" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="116">
         <v>36</v>
@@ -9921,24 +9921,24 @@
         <v>0</v>
       </c>
       <c r="U110" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V110" s="117">
         <v>0</v>
       </c>
-      <c r="W110" s="157"/>
-      <c r="X110" s="157"/>
-      <c r="Y110" s="158"/>
+      <c r="W110" s="192"/>
+      <c r="X110" s="192"/>
+      <c r="Y110" s="193"/>
       <c r="Z110" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B111" s="202"/>
-      <c r="C111" s="163"/>
+      <c r="B111" s="167"/>
+      <c r="C111" s="169"/>
       <c r="D111" s="89" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E111" s="119">
         <v>10</v>
@@ -9969,14 +9969,14 @@
       <c r="S111" s="119"/>
       <c r="T111" s="119"/>
       <c r="U111" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V111" s="113">
         <v>0</v>
       </c>
-      <c r="W111" s="157"/>
-      <c r="X111" s="157"/>
-      <c r="Y111" s="158"/>
+      <c r="W111" s="192"/>
+      <c r="X111" s="192"/>
+      <c r="Y111" s="193"/>
       <c r="Z111" s="96">
         <f t="shared" si="21"/>
         <v>0</v>
@@ -9987,7 +9987,7 @@
       <c r="B112" s="105"/>
       <c r="C112" s="106"/>
       <c r="D112" s="89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E112" s="119">
         <v>15</v>
@@ -10018,7 +10018,7 @@
       <c r="S112" s="119"/>
       <c r="T112" s="119"/>
       <c r="U112" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V112" s="113">
         <v>0</v>
@@ -10033,7 +10033,7 @@
       <c r="B113" s="105"/>
       <c r="C113" s="106"/>
       <c r="D113" s="89" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E113" s="119">
         <v>15</v>
@@ -10064,7 +10064,7 @@
       <c r="S113" s="119"/>
       <c r="T113" s="119"/>
       <c r="U113" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V113" s="113">
         <v>0</v>
@@ -10079,7 +10079,7 @@
       <c r="B114" s="105"/>
       <c r="C114" s="106"/>
       <c r="D114" s="89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E114" s="119">
         <v>15</v>
@@ -10110,7 +10110,7 @@
       <c r="S114" s="119"/>
       <c r="T114" s="119"/>
       <c r="U114" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V114" s="113">
         <v>0</v>
@@ -10125,7 +10125,7 @@
       <c r="B115" s="105"/>
       <c r="C115" s="106"/>
       <c r="D115" s="89" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E115" s="119">
         <v>15</v>
@@ -10156,7 +10156,7 @@
       <c r="S115" s="119"/>
       <c r="T115" s="119"/>
       <c r="U115" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V115" s="113">
         <v>0</v>
@@ -10168,7 +10168,7 @@
     </row>
     <row r="116" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B116" s="74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116" s="75">
         <v>43859.625</v>
@@ -10239,7 +10239,7 @@
         <v>117.0000114440918</v>
       </c>
       <c r="U116" s="110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V116" s="111">
         <f>SUM(V117:V124)</f>
@@ -10260,10 +10260,10 @@
       </c>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B117" s="180"/>
-      <c r="C117" s="166"/>
+      <c r="B117" s="159"/>
+      <c r="C117" s="168"/>
       <c r="D117" s="79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E117" s="112">
         <v>452.79998779296875</v>
@@ -10316,24 +10316,24 @@
         <v>62.000011444091797</v>
       </c>
       <c r="U117" s="115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V117" s="113">
         <v>0</v>
       </c>
-      <c r="W117" s="157"/>
-      <c r="X117" s="157"/>
-      <c r="Y117" s="158"/>
+      <c r="W117" s="192"/>
+      <c r="X117" s="192"/>
+      <c r="Y117" s="193"/>
       <c r="Z117" s="96">
         <f t="shared" si="30"/>
         <v>-1.9073486328125E-5</v>
       </c>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B118" s="181"/>
-      <c r="C118" s="163"/>
+      <c r="B118" s="164"/>
+      <c r="C118" s="169"/>
       <c r="D118" s="40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E118" s="116">
         <v>24</v>
@@ -10386,24 +10386,24 @@
         <v>0</v>
       </c>
       <c r="U118" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V118" s="117">
         <v>0</v>
       </c>
-      <c r="W118" s="157"/>
-      <c r="X118" s="157"/>
-      <c r="Y118" s="158"/>
+      <c r="W118" s="192"/>
+      <c r="X118" s="192"/>
+      <c r="Y118" s="193"/>
       <c r="Z118" s="96">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B119" s="181"/>
-      <c r="C119" s="163"/>
+      <c r="B119" s="164"/>
+      <c r="C119" s="169"/>
       <c r="D119" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E119" s="116">
         <v>12</v>
@@ -10456,24 +10456,24 @@
         <v>0</v>
       </c>
       <c r="U119" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V119" s="117">
         <v>0</v>
       </c>
-      <c r="W119" s="157"/>
-      <c r="X119" s="157"/>
-      <c r="Y119" s="158"/>
+      <c r="W119" s="192"/>
+      <c r="X119" s="192"/>
+      <c r="Y119" s="193"/>
       <c r="Z119" s="96">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B120" s="181"/>
-      <c r="C120" s="163"/>
+      <c r="B120" s="164"/>
+      <c r="C120" s="169"/>
       <c r="D120" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E120" s="116">
         <v>12</v>
@@ -10526,24 +10526,24 @@
         <v>0</v>
       </c>
       <c r="U120" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V120" s="117">
         <v>3.0000000260770321E-3</v>
       </c>
-      <c r="W120" s="157"/>
-      <c r="X120" s="157"/>
-      <c r="Y120" s="158"/>
+      <c r="W120" s="192"/>
+      <c r="X120" s="192"/>
+      <c r="Y120" s="193"/>
       <c r="Z120" s="96">
         <f t="shared" si="30"/>
         <v>-2.5937333703041077E-7</v>
       </c>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B121" s="181"/>
-      <c r="C121" s="163"/>
+      <c r="B121" s="164"/>
+      <c r="C121" s="169"/>
       <c r="D121" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E121" s="116">
         <v>665</v>
@@ -10596,14 +10596,14 @@
         <v>0</v>
       </c>
       <c r="U121" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V121" s="117">
         <v>0</v>
       </c>
-      <c r="W121" s="157"/>
-      <c r="X121" s="157"/>
-      <c r="Y121" s="158"/>
+      <c r="W121" s="192"/>
+      <c r="X121" s="192"/>
+      <c r="Y121" s="193"/>
       <c r="Z121" s="96">
         <f t="shared" si="30"/>
         <v>0</v>
@@ -10611,10 +10611,10 @@
     </row>
     <row r="122" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="51"/>
-      <c r="B122" s="181"/>
-      <c r="C122" s="163"/>
+      <c r="B122" s="164"/>
+      <c r="C122" s="169"/>
       <c r="D122" s="40" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E122" s="116">
         <v>15</v>
@@ -10645,22 +10645,22 @@
       <c r="S122" s="141"/>
       <c r="T122" s="141"/>
       <c r="U122" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V122" s="117">
         <v>0</v>
       </c>
-      <c r="W122" s="157"/>
-      <c r="X122" s="157"/>
-      <c r="Y122" s="158"/>
+      <c r="W122" s="192"/>
+      <c r="X122" s="192"/>
+      <c r="Y122" s="193"/>
       <c r="Z122" s="96"/>
     </row>
     <row r="123" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="51"/>
-      <c r="B123" s="181"/>
-      <c r="C123" s="163"/>
+      <c r="B123" s="164"/>
+      <c r="C123" s="169"/>
       <c r="D123" s="40" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E123" s="116">
         <v>15</v>
@@ -10691,21 +10691,21 @@
       <c r="S123" s="141"/>
       <c r="T123" s="141"/>
       <c r="U123" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V123" s="117">
         <v>0</v>
       </c>
-      <c r="W123" s="157"/>
-      <c r="X123" s="157"/>
-      <c r="Y123" s="158"/>
+      <c r="W123" s="192"/>
+      <c r="X123" s="192"/>
+      <c r="Y123" s="193"/>
       <c r="Z123" s="96"/>
     </row>
     <row r="124" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B124" s="181"/>
-      <c r="C124" s="163"/>
+      <c r="B124" s="164"/>
+      <c r="C124" s="169"/>
       <c r="D124" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E124" s="116">
         <v>428</v>
@@ -10761,19 +10761,19 @@
       <c r="V124" s="117">
         <v>0</v>
       </c>
-      <c r="W124" s="157"/>
-      <c r="X124" s="157"/>
-      <c r="Y124" s="158"/>
+      <c r="W124" s="192"/>
+      <c r="X124" s="192"/>
+      <c r="Y124" s="193"/>
       <c r="Z124" s="96">
         <f t="shared" ref="Z124:Z143" si="32">E124-F124-H124-M124-N124-O124-P124-Q124+V124</f>
         <v>-1.430511474609375E-6</v>
       </c>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B125" s="181"/>
-      <c r="C125" s="163"/>
+      <c r="B125" s="164"/>
+      <c r="C125" s="169"/>
       <c r="D125" s="40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E125" s="116">
         <v>410</v>
@@ -10826,24 +10826,24 @@
         <v>55</v>
       </c>
       <c r="U125" s="118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V125" s="117">
         <v>0</v>
       </c>
-      <c r="W125" s="157"/>
-      <c r="X125" s="157"/>
-      <c r="Y125" s="158"/>
+      <c r="W125" s="192"/>
+      <c r="X125" s="192"/>
+      <c r="Y125" s="193"/>
       <c r="Z125" s="96">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="201"/>
-      <c r="C126" s="203"/>
+      <c r="B126" s="165"/>
+      <c r="C126" s="170"/>
       <c r="D126" s="43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E126" s="142">
         <v>18</v>
@@ -10859,19 +10859,19 @@
         <v>0</v>
       </c>
       <c r="I126" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J126" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K126" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L126" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M126" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N126" s="140">
         <v>0</v>
@@ -10890,20 +10890,20 @@
         <v>3.5999999046325684</v>
       </c>
       <c r="S126" s="140" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T126" s="140">
         <v>0</v>
       </c>
       <c r="U126" s="143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V126" s="140">
         <v>0</v>
       </c>
-      <c r="W126" s="159"/>
-      <c r="X126" s="159"/>
-      <c r="Y126" s="160"/>
+      <c r="W126" s="201"/>
+      <c r="X126" s="201"/>
+      <c r="Y126" s="202"/>
       <c r="Z126" s="96" t="e">
         <f t="shared" si="32"/>
         <v>#VALUE!</v>
@@ -11006,7 +11006,7 @@
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" s="34"/>
       <c r="D128" s="25"/>
@@ -11092,7 +11092,7 @@
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B129" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="29"/>
@@ -11153,10 +11153,10 @@
         <v>12744.992749810219</v>
       </c>
       <c r="S129" s="153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T129" s="154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U129" s="154">
         <f>SUM(U16,U58,U80,U102)</f>
@@ -11177,7 +11177,7 @@
     <row r="130" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="51"/>
       <c r="B130" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="29"/>
@@ -11214,13 +11214,13 @@
         <v>0</v>
       </c>
       <c r="S130" s="153" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T130" s="154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U130" s="154" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V130" s="149">
         <f>V23+V24+V25+V26+V27+V28+V29+V30+V56+V111+V112+V113+V114+V115+V122+V123</f>
@@ -11236,7 +11236,7 @@
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B131" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C131" s="34"/>
       <c r="D131" s="25"/>
@@ -11266,7 +11266,7 @@
         <v>1774.7469999999998</v>
       </c>
       <c r="U131" s="151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V131" s="149"/>
       <c r="W131" s="26"/>
@@ -11279,7 +11279,7 @@
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B132" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C132" s="34"/>
       <c r="D132" s="25"/>
@@ -11309,7 +11309,7 @@
         <v>2387.3689999999997</v>
       </c>
       <c r="U132" s="151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V132" s="149"/>
       <c r="W132" s="26"/>
@@ -11322,7 +11322,7 @@
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B133" s="65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C133" s="34"/>
       <c r="D133" s="25"/>
@@ -11352,7 +11352,7 @@
         <v>725.3</v>
       </c>
       <c r="U133" s="151" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V133" s="149"/>
       <c r="W133" s="26"/>
@@ -11365,7 +11365,7 @@
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B134" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="37"/>
       <c r="D134" s="29"/>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="135" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="29"/>
@@ -11447,7 +11447,7 @@
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C136" s="36"/>
       <c r="D136" s="24"/>
@@ -11536,7 +11536,7 @@
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B137" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C137" s="34"/>
       <c r="D137" s="44"/>
@@ -11622,7 +11622,7 @@
     <row r="138" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="51"/>
       <c r="B138" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="45"/>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="139" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C139" s="35"/>
       <c r="D139" s="46"/>
@@ -11791,7 +11791,7 @@
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B140" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C140" s="33"/>
       <c r="D140" s="63"/>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C141" s="37"/>
       <c r="D141" s="45"/>
@@ -11966,7 +11966,7 @@
     <row r="142" spans="1:26" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="51"/>
       <c r="B142" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="45"/>
@@ -12016,7 +12016,7 @@
     </row>
     <row r="143" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C143" s="35"/>
       <c r="D143" s="46"/>
@@ -12099,102 +12099,102 @@
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B144" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C144" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D144" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E144" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F144" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H144" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I144" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J144" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K144" s="62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L144" s="60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V144" s="86"/>
       <c r="W144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X144" s="58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y144" s="56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B145" s="204"/>
-      <c r="C145" s="204"/>
-      <c r="D145" s="204"/>
+      <c r="B145" s="171"/>
+      <c r="C145" s="171"/>
+      <c r="D145" s="171"/>
       <c r="E145" s="99" t="s">
+        <v>133</v>
+      </c>
+      <c r="F145" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="F145" s="99" t="s">
+      <c r="G145" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="G145" s="99" t="s">
+      <c r="H145" s="99" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="99" t="s">
+      <c r="I145" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="I145" s="99" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="146" spans="1:22" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="205" t="s">
-        <v>169</v>
-      </c>
-      <c r="C146" s="205"/>
-      <c r="D146" s="205"/>
+      <c r="B146" s="172" t="s">
+        <v>168</v>
+      </c>
+      <c r="C146" s="172"/>
+      <c r="D146" s="172"/>
       <c r="E146" s="100">
         <v>-11.2</v>
       </c>
@@ -12215,11 +12215,11 @@
     </row>
     <row r="147" spans="1:22" s="84" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="51"/>
-      <c r="B147" s="205" t="s">
-        <v>133</v>
-      </c>
-      <c r="C147" s="205"/>
-      <c r="D147" s="205"/>
+      <c r="B147" s="172" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" s="172"/>
+      <c r="D147" s="172"/>
       <c r="E147" s="100">
         <v>-11.8</v>
       </c>
@@ -12256,19 +12256,19 @@
       <c r="L148" s="2"/>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B149" s="199" t="s">
-        <v>30</v>
-      </c>
-      <c r="C149" s="200"/>
+      <c r="B149" s="162" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="163"/>
       <c r="D149" s="10">
         <v>0.95303998204264562</v>
       </c>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B150" s="196" t="s">
-        <v>31</v>
-      </c>
-      <c r="C150" s="197"/>
+      <c r="B150" s="157" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" s="158"/>
       <c r="D150" s="9">
         <f>SUM(X127-W127)</f>
         <v>1055.9434967041016</v>
@@ -12279,17 +12279,17 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B151" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B152" s="64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B153" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
@@ -12360,29 +12360,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B117:B126"/>
-    <mergeCell ref="B87:B106"/>
-    <mergeCell ref="C117:C126"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="W117:Y126"/>
+    <mergeCell ref="W87:Y106"/>
+    <mergeCell ref="C87:C106"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W55:Y60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="W49:Y53"/>
+    <mergeCell ref="W34:Y47"/>
+    <mergeCell ref="C34:C47"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="C18:C32"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="C10:C16"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -12399,22 +12392,29 @@
     <mergeCell ref="B5:B8"/>
     <mergeCell ref="B10:B16"/>
     <mergeCell ref="W10:Y16"/>
-    <mergeCell ref="W117:Y126"/>
-    <mergeCell ref="W87:Y106"/>
-    <mergeCell ref="C87:C106"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W55:Y60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="W49:Y53"/>
-    <mergeCell ref="W34:Y47"/>
-    <mergeCell ref="C34:C47"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C18:C32"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B117:B126"/>
+    <mergeCell ref="B87:B106"/>
+    <mergeCell ref="C117:C126"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B84:B85"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
